--- a/BitcoinPriceTracker/Data/prices.xlsx
+++ b/BitcoinPriceTracker/Data/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Gabor\Desktop\UNI\3rd YEAR\RPA\RPAProject\BitcoinPriceTracker\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE73C2A-D5CD-4ECF-9143-271617B65970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8099368-7DD0-464E-8CA8-A74B877658E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48195" yWindow="2535" windowWidth="17910" windowHeight="11325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30945" yWindow="2040" windowWidth="17910" windowHeight="11325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -54,10 +54,10 @@
     <t>Old Prices</t>
   </si>
   <si>
-    <t>49162.34 </t>
-  </si>
-  <si>
     <t>46616.25 </t>
+  </si>
+  <si>
+    <t>46662.41 </t>
   </si>
 </sst>
 </file>
@@ -435,13 +435,13 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>46821.07</v>
+      </c>
+      <c r="C2" s="1">
+        <v>41562.910000000003</v>
+      </c>
+      <c r="D2">
         <v>46630.5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>41393.74</v>
-      </c>
-      <c r="D2">
-        <v>49213.73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -449,13 +449,13 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>46874.65</v>
+      </c>
+      <c r="C3" s="1">
+        <v>41610.47</v>
+      </c>
+      <c r="D3">
         <v>46620.06</v>
-      </c>
-      <c r="C3" s="1">
-        <v>41384.480000000003</v>
-      </c>
-      <c r="D3">
-        <v>49204</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,13 +463,13 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>46827.42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>41568.550000000003</v>
+      </c>
+      <c r="D4">
         <v>46594.93</v>
-      </c>
-      <c r="C4" s="1">
-        <v>41362.17</v>
-      </c>
-      <c r="D4">
-        <v>49231.18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,13 +477,13 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>46534.879999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>41308.86</v>
+      </c>
+      <c r="D5">
         <v>46576.73</v>
-      </c>
-      <c r="C5" s="1">
-        <v>41346.01</v>
-      </c>
-      <c r="D5">
-        <v>49246.55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>41381.089999999997</v>
+        <v>41422.07</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>

--- a/BitcoinPriceTracker/Data/prices.xlsx
+++ b/BitcoinPriceTracker/Data/prices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Gabor\Desktop\UNI\3rd YEAR\RPA\RPAProject\BitcoinPriceTracker\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8099368-7DD0-464E-8CA8-A74B877658E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8319DB-5AC7-497C-8308-A705544EB2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30945" yWindow="2040" windowWidth="17910" windowHeight="11325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>Old Prices</t>
   </si>
   <si>
-    <t>46616.25 </t>
-  </si>
-  <si>
     <t>46662.41 </t>
+  </si>
+  <si>
+    <t>46155.04 </t>
   </si>
 </sst>
 </file>
@@ -435,13 +435,13 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>46080.68</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40571.379999999997</v>
+      </c>
+      <c r="D2">
         <v>46821.07</v>
-      </c>
-      <c r="C2" s="1">
-        <v>41562.910000000003</v>
-      </c>
-      <c r="D2">
-        <v>46630.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -449,13 +449,13 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>46071.19</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40563.019999999997</v>
+      </c>
+      <c r="D3">
         <v>46874.65</v>
-      </c>
-      <c r="C3" s="1">
-        <v>41610.47</v>
-      </c>
-      <c r="D3">
-        <v>46620.06</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,13 +463,13 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>46087.23</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40577.14</v>
+      </c>
+      <c r="D4">
         <v>46827.42</v>
-      </c>
-      <c r="C4" s="1">
-        <v>41568.550000000003</v>
-      </c>
-      <c r="D4">
-        <v>46594.93</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,13 +477,13 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>46170.09</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40650.1</v>
+      </c>
+      <c r="D5">
         <v>46534.879999999997</v>
-      </c>
-      <c r="C5" s="1">
-        <v>41308.86</v>
-      </c>
-      <c r="D5">
-        <v>46576.73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>41422.07</v>
+        <v>40636.85</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>

--- a/BitcoinPriceTracker/Data/prices.xlsx
+++ b/BitcoinPriceTracker/Data/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Gabor\Desktop\UNI\3rd YEAR\RPA\RPAProject\BitcoinPriceTracker\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8319DB-5AC7-497C-8308-A705544EB2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCDAD51-E636-4817-84BB-7BAE92857F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30945" yWindow="2040" windowWidth="17910" windowHeight="11325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>Old Prices</t>
   </si>
   <si>
-    <t>46662.41 </t>
-  </si>
-  <si>
     <t>46155.04 </t>
+  </si>
+  <si>
+    <t>46131.60 </t>
   </si>
 </sst>
 </file>
@@ -435,13 +435,13 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>46071.03</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40562.879999999997</v>
+      </c>
+      <c r="D2">
         <v>46080.68</v>
-      </c>
-      <c r="C2" s="1">
-        <v>40571.379999999997</v>
-      </c>
-      <c r="D2">
-        <v>46821.07</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -449,13 +449,13 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>46066.400000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40558.81</v>
+      </c>
+      <c r="D3">
         <v>46071.19</v>
-      </c>
-      <c r="C3" s="1">
-        <v>40563.019999999997</v>
-      </c>
-      <c r="D3">
-        <v>46874.65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,13 +463,13 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>46094.14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40583.230000000003</v>
+      </c>
+      <c r="D4">
         <v>46087.23</v>
-      </c>
-      <c r="C4" s="1">
-        <v>40577.14</v>
-      </c>
-      <c r="D4">
-        <v>46827.42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,13 +477,13 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>46145.919999999998</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40628.82</v>
+      </c>
+      <c r="D5">
         <v>46170.09</v>
-      </c>
-      <c r="C5" s="1">
-        <v>40650.1</v>
-      </c>
-      <c r="D5">
-        <v>46534.879999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>40636.85</v>
+        <v>40616.21</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>

--- a/BitcoinPriceTracker/Data/prices.xlsx
+++ b/BitcoinPriceTracker/Data/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Gabor\Desktop\UNI\3rd YEAR\RPA\RPAProject\BitcoinPriceTracker\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCDAD51-E636-4817-84BB-7BAE92857F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7ACA10-A25F-4D83-9E32-816BC94BB265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30945" yWindow="2040" windowWidth="17910" windowHeight="11325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>Old Prices</t>
   </si>
   <si>
-    <t>46155.04 </t>
-  </si>
-  <si>
     <t>46131.60 </t>
+  </si>
+  <si>
+    <t>46276.50 </t>
   </si>
 </sst>
 </file>
@@ -435,13 +435,13 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>46217.93</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40692.22</v>
+      </c>
+      <c r="D2">
         <v>46071.03</v>
-      </c>
-      <c r="C2" s="1">
-        <v>40562.879999999997</v>
-      </c>
-      <c r="D2">
-        <v>46080.68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -449,13 +449,13 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>46215.1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40689.730000000003</v>
+      </c>
+      <c r="D3">
         <v>46066.400000000001</v>
-      </c>
-      <c r="C3" s="1">
-        <v>40558.81</v>
-      </c>
-      <c r="D3">
-        <v>46071.19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,13 +463,13 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>46192.2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40669.56</v>
+      </c>
+      <c r="D4">
         <v>46094.14</v>
-      </c>
-      <c r="C4" s="1">
-        <v>40583.230000000003</v>
-      </c>
-      <c r="D4">
-        <v>46087.23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,13 +477,13 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>46197.55</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40674.28</v>
+      </c>
+      <c r="D5">
         <v>46145.919999999998</v>
-      </c>
-      <c r="C5" s="1">
-        <v>40628.82</v>
-      </c>
-      <c r="D5">
-        <v>46170.09</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>40616.21</v>
+        <v>40743.79</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>

--- a/BitcoinPriceTracker/Data/prices.xlsx
+++ b/BitcoinPriceTracker/Data/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Gabor\Desktop\UNI\3rd YEAR\RPA\RPAProject\BitcoinPriceTracker\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7ACA10-A25F-4D83-9E32-816BC94BB265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6380EB9F-0189-4BE7-BDA4-7471B3F9784E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30945" yWindow="2040" windowWidth="17910" windowHeight="11325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Binance</t>
   </si>
@@ -54,16 +54,16 @@
     <t>Old Prices</t>
   </si>
   <si>
-    <t>46131.60 </t>
-  </si>
-  <si>
-    <t>46276.50 </t>
+    <t>46487.06 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;lei&quot;#,##0.00_);[Red]\(&quot;lei&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -91,9 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46217.93</v>
+        <v>46371.15</v>
       </c>
       <c r="C2" s="1">
-        <v>40692.22</v>
+        <v>40827.120000000003</v>
       </c>
       <c r="D2">
-        <v>46071.03</v>
+        <v>46364.26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -449,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46215.1</v>
+        <v>46458.25</v>
       </c>
       <c r="C3" s="1">
-        <v>40689.730000000003</v>
+        <v>40903.81</v>
       </c>
       <c r="D3">
-        <v>46066.400000000001</v>
+        <v>46361.06</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,13 +464,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>46192.2</v>
+        <v>46457.43</v>
       </c>
       <c r="C4" s="1">
-        <v>40669.56</v>
+        <v>40903.08</v>
       </c>
       <c r="D4">
-        <v>46094.14</v>
+        <v>46369.08</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,27 +478,27 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>46197.55</v>
+        <v>46386.05</v>
       </c>
       <c r="C5" s="1">
-        <v>40674.28</v>
+        <v>40840.239999999998</v>
       </c>
       <c r="D5">
-        <v>46145.919999999998</v>
+        <v>46367.59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>40743.79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+        <v>40929.17</v>
+      </c>
+      <c r="D6">
+        <v>46.450899999999997</v>
       </c>
     </row>
   </sheetData>

--- a/BitcoinPriceTracker/Data/prices.xlsx
+++ b/BitcoinPriceTracker/Data/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Gabor\Desktop\UNI\3rd YEAR\RPA\RPAProject\BitcoinPriceTracker\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6380EB9F-0189-4BE7-BDA4-7471B3F9784E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377F707F-594E-4043-BEB7-BA2A5A27B3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30945" yWindow="2040" windowWidth="17910" windowHeight="11325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Binance</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>46487.06 </t>
+  </si>
+  <si>
+    <t>46238.19 </t>
   </si>
 </sst>
 </file>
@@ -436,13 +439,13 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>46263.47</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40946.31</v>
+      </c>
+      <c r="D2">
         <v>46371.15</v>
-      </c>
-      <c r="C2" s="1">
-        <v>40827.120000000003</v>
-      </c>
-      <c r="D2">
-        <v>46364.26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -450,13 +453,13 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>46307.8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40985.550000000003</v>
+      </c>
+      <c r="D3">
         <v>46458.25</v>
-      </c>
-      <c r="C3" s="1">
-        <v>40903.81</v>
-      </c>
-      <c r="D3">
-        <v>46361.06</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -464,13 +467,13 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>46264.35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40947.089999999997</v>
+      </c>
+      <c r="D4">
         <v>46457.43</v>
-      </c>
-      <c r="C4" s="1">
-        <v>40903.08</v>
-      </c>
-      <c r="D4">
-        <v>46369.08</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -478,13 +481,13 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>46217.61</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40905.72</v>
+      </c>
+      <c r="D5">
         <v>46386.05</v>
-      </c>
-      <c r="C5" s="1">
-        <v>40840.239999999998</v>
-      </c>
-      <c r="D5">
-        <v>46367.59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -492,13 +495,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>40923.94</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>40929.17</v>
-      </c>
-      <c r="D6">
-        <v>46.450899999999997</v>
       </c>
     </row>
   </sheetData>

--- a/BitcoinPriceTracker/Data/prices.xlsx
+++ b/BitcoinPriceTracker/Data/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Gabor\Desktop\UNI\3rd YEAR\RPA\RPAProject\BitcoinPriceTracker\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377F707F-594E-4043-BEB7-BA2A5A27B3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CEF6D3-32C5-47B1-AC39-C389C4BA0D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30945" yWindow="2040" windowWidth="17910" windowHeight="11325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36495" yWindow="2175" windowWidth="17910" windowHeight="11325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t>Sites</t>
+  </si>
+  <si>
+    <t>Prices</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Old Prices</t>
+  </si>
   <si>
     <t>Binance</t>
   </si>
@@ -42,22 +54,13 @@
     <t>CoinGecko</t>
   </si>
   <si>
-    <t>Sites</t>
-  </si>
-  <si>
-    <t>Prices</t>
-  </si>
-  <si>
-    <t>Euro</t>
-  </si>
-  <si>
-    <t>Old Prices</t>
-  </si>
-  <si>
-    <t>46487.06 </t>
-  </si>
-  <si>
-    <t>46238.19 </t>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>42395.35 </t>
+  </si>
+  <si>
+    <t>42397.86 </t>
   </si>
 </sst>
 </file>
@@ -415,93 +418,93 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>46263.47</v>
-      </c>
-      <c r="C2" s="1">
-        <v>40946.31</v>
-      </c>
-      <c r="D2">
-        <v>46371.15</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>46307.8</v>
+        <v>42329.13</v>
       </c>
       <c r="C3" s="1">
-        <v>40985.550000000003</v>
-      </c>
-      <c r="D3">
-        <v>46458.25</v>
+        <v>37434.86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>46264.35</v>
+        <v>42337.03</v>
       </c>
       <c r="C4" s="1">
-        <v>40947.089999999997</v>
+        <v>37441.839999999997</v>
       </c>
       <c r="D4">
-        <v>46457.43</v>
+        <v>42335.09</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>46217.61</v>
+        <v>42418.09</v>
       </c>
       <c r="C5" s="1">
-        <v>40905.72</v>
+        <v>37513.53</v>
       </c>
       <c r="D5">
-        <v>46386.05</v>
+        <v>42429.57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>37495.64</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>40923.94</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
